--- a/Spreadsheet/lunar_a_actions copy.xlsx
+++ b/Spreadsheet/lunar_a_actions copy.xlsx
@@ -439,151 +439,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>-125.376752786434</c:v>
+                  <c:v>-147.09513271855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-176.990304261024</c:v>
+                  <c:v>-113.337297412178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-187.529106398094</c:v>
+                  <c:v>-144.401983788542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-192.09902925641</c:v>
+                  <c:v>-56.7971768020055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-165.401655021593</c:v>
+                  <c:v>-35.2404963789692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-142.84931852061</c:v>
+                  <c:v>53.0275702424499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-195.673481805526</c:v>
+                  <c:v>67.8285328334035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-174.699629094092</c:v>
+                  <c:v>99.3314898367353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-198.24502977413</c:v>
+                  <c:v>106.385156621016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-122.004838701461</c:v>
+                  <c:v>36.2733246235871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-130.222217620185</c:v>
+                  <c:v>70.354793353678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-144.833182604152</c:v>
+                  <c:v>93.4751436265002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-140.102118945508</c:v>
+                  <c:v>104.170037126381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-93.62705511986471</c:v>
+                  <c:v>86.6096610726606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-47.8658580401288</c:v>
+                  <c:v>58.9317836332714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-29.2839833800677</c:v>
+                  <c:v>61.6185576296295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.98215882490095</c:v>
+                  <c:v>60.947169217918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.5295766630575</c:v>
+                  <c:v>112.176210083662</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.0845326039626</c:v>
+                  <c:v>8.637790942599629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.134771799959</c:v>
+                  <c:v>100.872352384054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69.07081135210569</c:v>
+                  <c:v>81.4480185051727</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105.598876109838</c:v>
+                  <c:v>98.4970878949075</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103.82158158804</c:v>
+                  <c:v>87.5384179377789</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.1041492579165</c:v>
+                  <c:v>39.99235894987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.5967536143682</c:v>
+                  <c:v>77.9094486725057</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.2403859468109</c:v>
+                  <c:v>66.5976998781926</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.7656176304459</c:v>
+                  <c:v>60.4050235651328</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>119.952412521399</c:v>
+                  <c:v>55.8352402320269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104.292029279952</c:v>
+                  <c:v>47.6845437807634</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>84.2381535639153</c:v>
+                  <c:v>67.7522913248843</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.15743317353341</c:v>
+                  <c:v>47.9242696044531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.3841646822611</c:v>
+                  <c:v>68.8075531900572</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80.1607758655595</c:v>
+                  <c:v>76.68408846375461</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76.65532778203629</c:v>
+                  <c:v>98.7838586046124</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61.6746385782544</c:v>
+                  <c:v>115.016147277379</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.1491903348119</c:v>
+                  <c:v>111.7594317825</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.040836646809</c:v>
+                  <c:v>32.353215615315</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>99.3862116929597</c:v>
+                  <c:v>37.3135797695074</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.8663206418977</c:v>
+                  <c:v>84.4761689962225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>78.3368871796779</c:v>
+                  <c:v>86.7566826048975</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>67.1610967194963</c:v>
+                  <c:v>144.184819373194</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>89.4078131082669</c:v>
+                  <c:v>76.5900584105987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>96.166689349331</c:v>
+                  <c:v>61.4405167862011</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>90.5758242620484</c:v>
+                  <c:v>-4.80775861752369</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>92.5980850350185</c:v>
+                  <c:v>-26.6369370967867</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.51698855304009</c:v>
+                  <c:v>54.5136682813183</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.7297996968299</c:v>
+                  <c:v>105.642795623958</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.5747214983283</c:v>
+                  <c:v>108.898921844154</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59.1527355462826</c:v>
+                  <c:v>-15.628471115664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,11 +598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1246040544"/>
-        <c:axId val="1246044560"/>
+        <c:axId val="-112012016"/>
+        <c:axId val="-112008256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1246040544"/>
+        <c:axId val="-112012016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,12 +718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246044560"/>
+        <c:crossAx val="-112008256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1246044560"/>
+        <c:axId val="-112008256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210.0"/>
@@ -836,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246040544"/>
+        <c:crossAx val="-112012016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -929,7 +929,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1293,76 +1292,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-125.376752786434</c:v>
+                  <c:v>-147.09513271855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-176.990304261024</c:v>
+                  <c:v>-113.337297412178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-187.529106398094</c:v>
+                  <c:v>-144.401983788542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-192.09902925641</c:v>
+                  <c:v>-56.7971768020055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-165.401655021593</c:v>
+                  <c:v>-35.2404963789692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-142.84931852061</c:v>
+                  <c:v>53.0275702424499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-195.673481805526</c:v>
+                  <c:v>67.8285328334035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-174.699629094092</c:v>
+                  <c:v>99.3314898367353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-198.24502977413</c:v>
+                  <c:v>106.385156621016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-122.004838701461</c:v>
+                  <c:v>36.2733246235871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-130.222217620185</c:v>
+                  <c:v>70.354793353678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-144.833182604152</c:v>
+                  <c:v>93.4751436265002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-140.102118945508</c:v>
+                  <c:v>104.170037126381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-93.62705511986471</c:v>
+                  <c:v>86.6096610726606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-47.8658580401288</c:v>
+                  <c:v>58.9317836332714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-29.2839833800677</c:v>
+                  <c:v>61.6185576296295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.98215882490095</c:v>
+                  <c:v>60.947169217918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.5295766630575</c:v>
+                  <c:v>112.176210083662</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.0845326039626</c:v>
+                  <c:v>8.637790942599629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.134771799959</c:v>
+                  <c:v>100.872352384054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69.07081135210569</c:v>
+                  <c:v>81.4480185051727</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105.598876109838</c:v>
+                  <c:v>98.4970878949075</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103.82158158804</c:v>
+                  <c:v>87.5384179377789</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.1041492579165</c:v>
+                  <c:v>39.99235894987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,11 +1633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1246085856"/>
-        <c:axId val="1246090128"/>
+        <c:axId val="-111988848"/>
+        <c:axId val="-111984576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1246085856"/>
+        <c:axId val="-111988848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1751,12 +1749,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246090128"/>
+        <c:crossAx val="-111984576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1246090128"/>
+        <c:axId val="-111984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1868,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246085856"/>
+        <c:crossAx val="-111988848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1882,7 +1879,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3392,7 +3388,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B3" sqref="B3:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3454,11 +3450,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-125.376752786434</v>
+        <v>-147.09513271854999</v>
       </c>
       <c r="T3">
         <f>AVERAGE(T4:T51)</f>
-        <v>26.701898440445742</v>
+        <v>36.754661078260249</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:X3" si="0">AVERAGE(U4:U51)</f>
@@ -3483,11 +3479,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-176.99030426102399</v>
+        <v>-113.337297412178</v>
       </c>
       <c r="T4">
         <f>ABS(B4-B3)</f>
-        <v>51.613551474589997</v>
+        <v>33.757835306371987</v>
       </c>
       <c r="U4">
         <f>ABS(C4-C3)</f>
@@ -3512,11 +3508,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-187.529106398094</v>
+        <v>-144.401983788542</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T27" si="2">ABS(B5-B4)</f>
-        <v>10.538802137070007</v>
+        <v>31.064686376363994</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:V25" si="3">ABS(C5-C4)</f>
@@ -3541,11 +3537,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-192.09902925641001</v>
+        <v>-56.797176802005502</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>4.569922858316005</v>
+        <v>87.604806986536488</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
@@ -3570,11 +3566,11 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-165.401655021593</v>
+        <v>-35.240496378969198</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>26.697374234817005</v>
+        <v>21.556680423036305</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
@@ -3599,11 +3595,11 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-142.84931852061001</v>
+        <v>53.027570242449897</v>
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
-        <v>22.552336500982989</v>
+        <v>88.268066621419095</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
@@ -3628,11 +3624,11 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-195.673481805526</v>
+        <v>67.8285328334035</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>52.824163284915983</v>
+        <v>14.800962590953603</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
@@ -3657,11 +3653,11 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-174.69962909409199</v>
+        <v>99.331489836735301</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>20.973852711434006</v>
+        <v>31.502957003331801</v>
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
@@ -3686,11 +3682,11 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-198.24502977412999</v>
+        <v>106.38515662101599</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>23.545400680038</v>
+        <v>7.0536667842806935</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
@@ -3715,11 +3711,11 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-122.004838701461</v>
+        <v>36.273324623587101</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>76.240191072668992</v>
+        <v>70.111831997428894</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
@@ -3744,11 +3740,11 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-130.22221762018501</v>
+        <v>70.354793353678005</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>8.2173789187240089</v>
+        <v>34.081468730090904</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
@@ -3773,11 +3769,11 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-144.833182604152</v>
+        <v>93.475143626500198</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>14.610964983966994</v>
+        <v>23.120350272822193</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
@@ -3802,11 +3798,11 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-140.10211894550801</v>
+        <v>104.170037126381</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
-        <v>4.7310636586439898</v>
+        <v>10.694893499880806</v>
       </c>
       <c r="U15">
         <f t="shared" si="3"/>
@@ -3831,11 +3827,11 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-93.627055119864707</v>
+        <v>86.6096610726606</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
-        <v>46.475063825643304</v>
+        <v>17.560376053720404</v>
       </c>
       <c r="U16">
         <f t="shared" si="3"/>
@@ -3860,11 +3856,11 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-47.865858040128799</v>
+        <v>58.931783633271401</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>45.761197079735908</v>
+        <v>27.677877439389199</v>
       </c>
       <c r="V17">
         <f t="shared" si="3"/>
@@ -3885,11 +3881,11 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-29.283983380067699</v>
+        <v>61.6185576296295</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
-        <v>18.5818746600611</v>
+        <v>2.6867739963580988</v>
       </c>
       <c r="V18">
         <f t="shared" si="3"/>
@@ -3910,11 +3906,11 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.9821588249009503</v>
+        <v>60.947169217918002</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
-        <v>35.266142204968652</v>
+        <v>0.67138841171149721</v>
       </c>
       <c r="V19">
         <f t="shared" si="3"/>
@@ -3935,11 +3931,11 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.529576663057497</v>
+        <v>112.176210083662</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
-        <v>28.547417838156548</v>
+        <v>51.229040865743997</v>
       </c>
       <c r="V20">
         <f t="shared" si="3"/>
@@ -3960,11 +3956,11 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83.0845326039626</v>
+        <v>8.6377909425996293</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
-        <v>48.554955940905103</v>
+        <v>103.53841914106238</v>
       </c>
       <c r="V21">
         <f t="shared" si="3"/>
@@ -3985,11 +3981,11 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78.134771799958997</v>
+        <v>100.872352384054</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>4.9497608040036027</v>
+        <v>92.23456144145436</v>
       </c>
       <c r="V22">
         <f t="shared" si="3"/>
@@ -4010,11 +4006,11 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69.070811352105693</v>
+        <v>81.448018505172698</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
-        <v>9.0639604478533045</v>
+        <v>19.424333878881299</v>
       </c>
       <c r="V23">
         <f t="shared" si="3"/>
@@ -4035,11 +4031,11 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105.598876109838</v>
+        <v>98.497087894907494</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>36.528064757732309</v>
+        <v>17.049069389734797</v>
       </c>
       <c r="V24">
         <f t="shared" si="3"/>
@@ -4060,11 +4056,11 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103.82158158804</v>
+        <v>87.538417937778902</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>1.7772945217979981</v>
+        <v>10.958669957128592</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
@@ -4085,11 +4081,11 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>63.104149257916497</v>
+        <v>39.992358949870003</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>40.717432330123508</v>
+        <v>47.5460589879089</v>
       </c>
       <c r="V26">
         <f t="shared" ref="V26" si="5">ABS(D26-D25)</f>
@@ -4110,11 +4106,11 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>55.596753614368197</v>
+        <v>77.909448672505704</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>7.5073956435482998</v>
+        <v>37.917089722635701</v>
       </c>
       <c r="W27">
         <f t="shared" si="4"/>
@@ -4131,7 +4127,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>72.240385946810903</v>
+        <v>66.5976998781926</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
@@ -4148,7 +4144,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>74.765617630445902</v>
+        <v>60.405023565132801</v>
       </c>
       <c r="W29">
         <f t="shared" si="4"/>
@@ -4165,7 +4161,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119.952412521399</v>
+        <v>55.835240232026898</v>
       </c>
       <c r="W30">
         <f t="shared" si="4"/>
@@ -4182,7 +4178,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>104.292029279952</v>
+        <v>47.684543780763399</v>
       </c>
       <c r="W31">
         <f t="shared" si="4"/>
@@ -4199,7 +4195,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84.238153563915304</v>
+        <v>67.752291324884297</v>
       </c>
       <c r="W32">
         <f t="shared" si="4"/>
@@ -4216,7 +4212,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92.157433173533406</v>
+        <v>47.924269604453102</v>
       </c>
       <c r="W33">
         <f t="shared" si="4"/>
@@ -4233,7 +4229,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98.384164682261101</v>
+        <v>68.807553190057206</v>
       </c>
       <c r="W34">
         <f t="shared" si="4"/>
@@ -4250,7 +4246,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>80.160775865559501</v>
+        <v>76.684088463754605</v>
       </c>
       <c r="W35">
         <f t="shared" si="4"/>
@@ -4267,7 +4263,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>76.655327782036295</v>
+        <v>98.783858604612405</v>
       </c>
       <c r="W36">
         <f t="shared" si="4"/>
@@ -4284,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>61.674638578254402</v>
+        <v>115.01614727737901</v>
       </c>
       <c r="W37">
         <f t="shared" si="4"/>
@@ -4301,7 +4297,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>35.149190334811898</v>
+        <v>111.7594317825</v>
       </c>
       <c r="W38">
         <f t="shared" si="4"/>
@@ -4318,7 +4314,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>62.040836646808998</v>
+        <v>32.353215615315001</v>
       </c>
       <c r="W39">
         <f t="shared" si="4"/>
@@ -4335,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99.386211692959705</v>
+        <v>37.313579769507399</v>
       </c>
       <c r="W40">
         <f t="shared" si="4"/>
@@ -4352,7 +4348,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>76.866320641897701</v>
+        <v>84.476168996222498</v>
       </c>
       <c r="W41">
         <f t="shared" si="4"/>
@@ -4369,7 +4365,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>78.336887179677902</v>
+        <v>86.756682604897506</v>
       </c>
       <c r="W42">
         <f t="shared" si="4"/>
@@ -4386,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>67.1610967194963</v>
+        <v>144.18481937319399</v>
       </c>
       <c r="W43">
         <f t="shared" si="4"/>
@@ -4403,7 +4399,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>89.407813108266893</v>
+        <v>76.590058410598701</v>
       </c>
       <c r="W44">
         <f t="shared" si="4"/>
@@ -4420,7 +4416,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>96.166689349330994</v>
+        <v>61.440516786201101</v>
       </c>
       <c r="W45">
         <f t="shared" si="4"/>
@@ -4437,7 +4433,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>90.5758242620484</v>
+        <v>-4.8077586175236897</v>
       </c>
       <c r="W46">
         <f t="shared" si="4"/>
@@ -4454,7 +4450,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>92.598085035018499</v>
+        <v>-26.636937096786699</v>
       </c>
       <c r="W47">
         <f t="shared" si="4"/>
@@ -4471,7 +4467,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>67.516988553040093</v>
+        <v>54.513668281318303</v>
       </c>
       <c r="W48">
         <f t="shared" si="4"/>
@@ -4488,7 +4484,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>53.7297996968299</v>
+        <v>105.64279562395799</v>
       </c>
       <c r="W49">
         <f t="shared" si="4"/>
@@ -4505,7 +4501,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>48.574721498328302</v>
+        <v>108.898921844154</v>
       </c>
       <c r="W50">
         <f t="shared" si="4"/>
@@ -4522,7 +4518,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>59.152735546282599</v>
+        <v>-15.628471115664</v>
       </c>
       <c r="W51">
         <f t="shared" si="4"/>

--- a/Spreadsheet/lunar_a_actions copy.xlsx
+++ b/Spreadsheet/lunar_a_actions copy.xlsx
@@ -74,13 +74,13 @@
     <t>n=10</t>
   </si>
   <si>
-    <t>n=1</t>
+    <t>agent reward</t>
   </si>
   <si>
-    <t>n=a</t>
+    <t>t</t>
   </si>
   <si>
-    <t>32,16</t>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -162,6 +162,1124 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Reward for REINFORCE Agent in Lunar Lander</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>𝛼=0.01, 𝛾=0.98, batch size=5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.184929105529703"/>
+          <c:y val="0.0214997663709533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>agent reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>-171.83595409252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-181.420300211096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-78.0477796619403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.6451511924869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.2653559349536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.9495614212603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.165306542833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.71523132969391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.217491822763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.220564849915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112.935589104422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129.647459751903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109.798805591374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.1620842625107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.4652986199355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.468772235025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110.133100009768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.0355264283298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.067685807893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132.577485272069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.7162123892801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.1925588786772</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.9410290226759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.4486155720172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101.55357882462</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.8559522149168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.5850070270596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.9071394849638</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.946995026123</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.1664482781599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.737447791274</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.4427939847552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115.450739275997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>115.460405729357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.5652627511617</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.96837112934117</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.6649353024194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.2422753154602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.1227648744817</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.92187978612451</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110.758083668128</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106.164356879779</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.25931504559409</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>106.293994235871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.912804775496</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>102.229567199581</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100.729107807123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.3115424951237</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92.3902947996619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1680073776"/>
+        <c:axId val="-1680370704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1680073776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (in 100s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1680370704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1680370704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1680073776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -176,33 +1294,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Reinforce</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Reward for Agents Playing LunarLander</a:t>
+              <a:t> Agent playing Cartpole with varying alpha</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>a=0.005, g=0.98, batch=10</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.319559798848803"/>
-          <c:y val="0.0240810153617917"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -243,17 +1344,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=1</c:v>
+                  <c:v>a=0.0025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -278,10 +1379,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$51</c:f>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -353,91 +1454,218 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$51</c:f>
+              <c:f>Sheet1!$B$55:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>177.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-147.09513271855</c:v>
                 </c:pt>
@@ -510,81 +1738,263 @@
                 <c:pt idx="23">
                   <c:v>39.99235894987</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.9094486725057</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>66.5976998781926</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.4050235651328</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55.8352402320269</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>47.6845437807634</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.7522913248843</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47.9242696044531</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>68.8075531900572</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76.68408846375461</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>98.7838586046124</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>115.016147277379</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>111.7594317825</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32.353215615315</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.3135797695074</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>84.4761689962225</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>86.7566826048975</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>144.184819373194</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>76.5900584105987</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>61.4405167862011</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-4.80775861752369</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-26.6369370967867</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>54.5136682813183</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>105.642795623958</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>108.898921844154</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-15.628471115664</c:v>
-                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a=0.025</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$55:$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -598,11 +2008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-112012016"/>
-        <c:axId val="-112008256"/>
+        <c:axId val="-1650792048"/>
+        <c:axId val="-1650789408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-112012016"/>
+        <c:axId val="-1650792048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,11 +2053,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Episode</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (in 100s)</a:t>
+                  <a:t>Episode (in 100s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -682,6 +2088,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -718,15 +2125,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112008256"/>
+        <c:crossAx val="-1650789408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112008256"/>
+        <c:axId val="-1650789408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="210.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -836,1036 +2242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112012016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reinforce</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Agent playing Cartpole with varying alpha</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.0025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$55:$B$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>107.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>180.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>177.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>166.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>197.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>183.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>190.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-147.09513271855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-113.337297412178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-144.401983788542</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-56.7971768020055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-35.2404963789692</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.0275702424499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.8285328334035</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99.3314898367353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>106.385156621016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.2733246235871</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.354793353678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.4751436265002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.170037126381</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86.6096610726606</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58.9317836332714</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61.6185576296295</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60.947169217918</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112.176210083662</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.637790942599629</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.872352384054</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81.4480185051727</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>98.4970878949075</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>87.5384179377789</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.99235894987</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a=0.025</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$55:$D$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$55:$A$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$55:$E$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-111988848"/>
-        <c:axId val="-111984576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-111988848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Episode (in 100s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-111984576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-111984576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Reward</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-111988848"/>
+        <c:crossAx val="-1650792048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1879,6 +2256,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3061,16 +3439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4493</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200776</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>818596</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>20482</xdr:colOff>
+      <xdr:colOff>4200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>40969</xdr:rowOff>
+      <xdr:rowOff>73533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3388,7 +3766,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B51"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,10 +3793,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -3450,6 +3828,12 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>-171.83595409252001</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
         <v>-147.09513271854999</v>
       </c>
       <c r="T3">
@@ -3458,15 +3842,15 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:X3" si="0">AVERAGE(U4:U51)</f>
-        <v>0</v>
+        <v>32.897159613102161</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="X3" t="e">
         <f t="shared" si="0"/>
@@ -3479,23 +3863,29 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>-181.42030021109599</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
         <v>-113.337297412178</v>
       </c>
       <c r="T4">
+        <f>ABS(E4-E3)</f>
+        <v>33.757835306371987</v>
+      </c>
+      <c r="U4">
         <f>ABS(B4-B3)</f>
-        <v>33.757835306371987</v>
-      </c>
-      <c r="U4">
-        <f>ABS(C4-C3)</f>
-        <v>0</v>
+        <v>9.5843461185759793</v>
       </c>
       <c r="V4">
         <f>ABS(D4-D3)</f>
         <v>0</v>
       </c>
-      <c r="W4">
-        <f>ABS(E4-E3)</f>
-        <v>0</v>
+      <c r="W4" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X4" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3508,23 +3898,29 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>-78.047779661940297</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
         <v>-144.401983788542</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T27" si="2">ABS(B5-B4)</f>
+        <f>ABS(E5-E4)</f>
         <v>31.064686376363994</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:V25" si="3">ABS(C5-C4)</f>
+        <f>ABS(B5-B4)</f>
+        <v>103.37252054915569</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="U5:V25" si="2">ABS(D5-D4)</f>
         <v>0</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:X51" si="4">ABS(E5-E4)</f>
-        <v>0</v>
+      <c r="W5" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X5" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3537,23 +3933,29 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>23.6451511924869</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
         <v>-56.797176802005502</v>
       </c>
       <c r="T6">
+        <f>ABS(E6-E5)</f>
+        <v>87.604806986536488</v>
+      </c>
+      <c r="U6">
+        <f>ABS(B6-B5)</f>
+        <v>101.6929308544272</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
-        <v>87.604806986536488</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W6" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X6" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3566,23 +3968,29 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>77.265355934953604</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
         <v>-35.240496378969198</v>
       </c>
       <c r="T7">
+        <f>ABS(E7-E6)</f>
+        <v>21.556680423036305</v>
+      </c>
+      <c r="U7">
+        <f>ABS(B7-B6)</f>
+        <v>53.620204742466704</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>21.556680423036305</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W7" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X7" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3595,23 +4003,29 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>72.949561421260299</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
         <v>53.027570242449897</v>
       </c>
       <c r="T8">
+        <f>ABS(E8-E7)</f>
+        <v>88.268066621419095</v>
+      </c>
+      <c r="U8">
+        <f>ABS(B8-B7)</f>
+        <v>4.3157945136933051</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
-        <v>88.268066621419095</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W8" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X8" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3624,23 +4038,29 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>104.16530654283299</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
         <v>67.8285328334035</v>
       </c>
       <c r="T9">
+        <f>ABS(E9-E8)</f>
+        <v>14.800962590953603</v>
+      </c>
+      <c r="U9">
+        <f>ABS(B9-B8)</f>
+        <v>31.215745121572695</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>14.800962590953603</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W9" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X9" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3653,23 +4073,29 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>88.715231329693907</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
         <v>99.331489836735301</v>
       </c>
       <c r="T10">
+        <f>ABS(E10-E9)</f>
+        <v>31.502957003331801</v>
+      </c>
+      <c r="U10">
+        <f>ABS(B10-B9)</f>
+        <v>15.450075213139087</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
-        <v>31.502957003331801</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W10" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X10" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3682,23 +4108,29 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>123.21749182276299</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
         <v>106.38515662101599</v>
       </c>
       <c r="T11">
+        <f>ABS(E11-E10)</f>
+        <v>7.0536667842806935</v>
+      </c>
+      <c r="U11">
+        <f>ABS(B11-B10)</f>
+        <v>34.502260493069087</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>7.0536667842806935</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W11" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X11" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3711,23 +4143,29 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>107.22056484991499</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
         <v>36.273324623587101</v>
       </c>
       <c r="T12">
+        <f>ABS(E12-E11)</f>
+        <v>70.111831997428894</v>
+      </c>
+      <c r="U12">
+        <f>ABS(B12-B11)</f>
+        <v>15.996926972848001</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>70.111831997428894</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W12" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X12" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3740,23 +4178,29 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>112.93558910442199</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
         <v>70.354793353678005</v>
       </c>
       <c r="T13">
+        <f>ABS(E13-E12)</f>
+        <v>34.081468730090904</v>
+      </c>
+      <c r="U13">
+        <f>ABS(B13-B12)</f>
+        <v>5.715024254507</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>34.081468730090904</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W13" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X13" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3769,23 +4213,29 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>129.647459751903</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
         <v>93.475143626500198</v>
       </c>
       <c r="T14">
+        <f>ABS(E14-E13)</f>
+        <v>23.120350272822193</v>
+      </c>
+      <c r="U14">
+        <f>ABS(B14-B13)</f>
+        <v>16.711870647481007</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>23.120350272822193</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W14" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X14" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3798,23 +4248,29 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>109.79880559137401</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
         <v>104.170037126381</v>
       </c>
       <c r="T15">
+        <f>ABS(E15-E14)</f>
+        <v>10.694893499880806</v>
+      </c>
+      <c r="U15">
+        <f>ABS(B15-B14)</f>
+        <v>19.848654160528994</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="2"/>
-        <v>10.694893499880806</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W15" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X15" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3827,23 +4283,29 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>94.162084262510703</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
         <v>86.6096610726606</v>
       </c>
       <c r="T16">
+        <f>ABS(E16-E15)</f>
+        <v>17.560376053720404</v>
+      </c>
+      <c r="U16">
+        <f>ABS(B16-B15)</f>
+        <v>15.636721328863302</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="2"/>
-        <v>17.560376053720404</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W16" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X16" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3856,19 +4318,25 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>97.465298619935496</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
         <v>58.931783633271401</v>
       </c>
       <c r="T17">
+        <f>ABS(E17-E16)</f>
+        <v>27.677877439389199</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>27.677877439389199</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W17" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X17" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3881,19 +4349,25 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>102.468772235025</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
         <v>61.6185576296295</v>
       </c>
       <c r="T18">
+        <f>ABS(E18-E17)</f>
+        <v>2.6867739963580988</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="2"/>
-        <v>2.6867739963580988</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W18" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X18" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3906,19 +4380,25 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>110.133100009768</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
         <v>60.947169217918002</v>
       </c>
       <c r="T19">
+        <f>ABS(E19-E18)</f>
+        <v>0.67138841171149721</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="2"/>
-        <v>0.67138841171149721</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W19" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X19" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3931,19 +4411,25 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>97.035526428329803</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
         <v>112.176210083662</v>
       </c>
       <c r="T20">
+        <f>ABS(E20-E19)</f>
+        <v>51.229040865743997</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="2"/>
-        <v>51.229040865743997</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W20" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X20" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3956,19 +4442,25 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <v>136.06768580789301</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
         <v>8.6377909425996293</v>
       </c>
       <c r="T21">
+        <f>ABS(E21-E20)</f>
+        <v>103.53841914106238</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="2"/>
-        <v>103.53841914106238</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W21" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X21" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -3981,19 +4473,25 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <v>132.577485272069</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
         <v>100.872352384054</v>
       </c>
       <c r="T22">
+        <f>ABS(E22-E21)</f>
+        <v>92.23456144145436</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="2"/>
-        <v>92.23456144145436</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W22" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X22" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -4006,19 +4504,25 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <v>98.716212389280102</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
         <v>81.448018505172698</v>
       </c>
       <c r="T23">
+        <f>ABS(E23-E22)</f>
+        <v>19.424333878881299</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="2"/>
-        <v>19.424333878881299</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W23" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X23" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -4031,19 +4535,25 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>76.192558878677204</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
         <v>98.497087894907494</v>
       </c>
       <c r="T24">
+        <f>ABS(E24-E23)</f>
+        <v>17.049069389734797</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="2"/>
-        <v>17.049069389734797</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W24" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X24" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -4056,19 +4566,25 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>80.941029022675906</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
         <v>87.538417937778902</v>
       </c>
       <c r="T25">
+        <f>ABS(E25-E24)</f>
+        <v>10.958669957128592</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="2"/>
-        <v>10.958669957128592</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W25" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X25" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -4081,19 +4597,25 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>98.448615572017204</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
         <v>39.992358949870003</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f>ABS(E26-E25)</f>
         <v>47.5460589879089</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26" si="5">ABS(D26-D25)</f>
+        <f t="shared" ref="V26" si="3">ABS(D26-D25)</f>
         <v>0</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W26" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X26" t="e">
         <f>ABS(#REF!-#REF!)</f>
@@ -4106,15 +4628,21 @@
         <v>25</v>
       </c>
       <c r="B27">
+        <v>101.55357882462</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
         <v>77.909448672505704</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f>ABS(E27-E26)</f>
         <v>37.917089722635701</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W27" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X27" t="e">
         <f>ABS(F27-#REF!)</f>
@@ -4127,14 +4655,20 @@
         <v>26</v>
       </c>
       <c r="B28">
+        <v>84.855952214916798</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
         <v>66.5976998781926</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W28" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X28">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W5:X51" si="4">ABS(F28-F27)</f>
         <v>0</v>
       </c>
     </row>
@@ -4144,11 +4678,17 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <v>90.585007027059604</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
         <v>60.405023565132801</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W29" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X29">
         <f t="shared" si="4"/>
@@ -4161,11 +4701,17 @@
         <v>28</v>
       </c>
       <c r="B30">
+        <v>90.907139484963807</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
         <v>55.835240232026898</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W30" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X30">
         <f t="shared" si="4"/>
@@ -4178,11 +4724,17 @@
         <v>29</v>
       </c>
       <c r="B31">
+        <v>104.94699502612301</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
         <v>47.684543780763399</v>
       </c>
-      <c r="W31">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W31" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X31">
         <f t="shared" si="4"/>
@@ -4195,11 +4747,17 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>56.166448278159898</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
         <v>67.752291324884297</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W32" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X32">
         <f t="shared" si="4"/>
@@ -4212,11 +4770,17 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>56.737447791274001</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
         <v>47.924269604453102</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W33" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X33">
         <f t="shared" si="4"/>
@@ -4229,11 +4793,17 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <v>99.442793984755198</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
         <v>68.807553190057206</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W34" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X34">
         <f t="shared" si="4"/>
@@ -4246,11 +4816,17 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>115.45073927599699</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
         <v>76.684088463754605</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W35" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X35">
         <f t="shared" si="4"/>
@@ -4263,11 +4839,17 @@
         <v>34</v>
       </c>
       <c r="B36">
+        <v>115.46040572935701</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
         <v>98.783858604612405</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W36" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X36">
         <f t="shared" si="4"/>
@@ -4280,11 +4862,17 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <v>83.565262751161697</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
         <v>115.01614727737901</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W37" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X37">
         <f t="shared" si="4"/>
@@ -4297,11 +4885,17 @@
         <v>36</v>
       </c>
       <c r="B38">
+        <v>5.9683711293411701</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
         <v>111.7594317825</v>
       </c>
-      <c r="W38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W38" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X38">
         <f t="shared" si="4"/>
@@ -4314,11 +4908,17 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <v>29.664935302419401</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
         <v>32.353215615315001</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W39" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X39">
         <f t="shared" si="4"/>
@@ -4331,11 +4931,17 @@
         <v>38</v>
       </c>
       <c r="B40">
+        <v>59.242275315460198</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
         <v>37.313579769507399</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W40" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X40">
         <f t="shared" si="4"/>
@@ -4348,11 +4954,17 @@
         <v>39</v>
       </c>
       <c r="B41">
+        <v>73.122764874481703</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
         <v>84.476168996222498</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W41" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X41">
         <f t="shared" si="4"/>
@@ -4365,11 +4977,17 @@
         <v>40</v>
       </c>
       <c r="B42">
+        <v>69.921879786124506</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
         <v>86.756682604897506</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W42" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X42">
         <f t="shared" si="4"/>
@@ -4382,11 +5000,17 @@
         <v>41</v>
       </c>
       <c r="B43">
+        <v>110.75808366812799</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
         <v>144.18481937319399</v>
       </c>
-      <c r="W43">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W43" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X43">
         <f t="shared" si="4"/>
@@ -4399,11 +5023,17 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <v>106.16435687977901</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
         <v>76.590058410598701</v>
       </c>
-      <c r="W44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W44" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X44">
         <f t="shared" si="4"/>
@@ -4416,11 +5046,17 @@
         <v>43</v>
       </c>
       <c r="B45">
+        <v>95.259315045594093</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
         <v>61.440516786201101</v>
       </c>
-      <c r="W45">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W45" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X45">
         <f t="shared" si="4"/>
@@ -4433,11 +5069,17 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>106.293994235871</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
         <v>-4.8077586175236897</v>
       </c>
-      <c r="W46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W46" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X46">
         <f t="shared" si="4"/>
@@ -4450,11 +5092,17 @@
         <v>45</v>
       </c>
       <c r="B47">
+        <v>104.912804775496</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
         <v>-26.636937096786699</v>
       </c>
-      <c r="W47">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W47" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X47">
         <f t="shared" si="4"/>
@@ -4467,11 +5115,17 @@
         <v>46</v>
       </c>
       <c r="B48">
+        <v>102.229567199581</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
         <v>54.513668281318303</v>
       </c>
-      <c r="W48">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W48" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X48">
         <f t="shared" si="4"/>
@@ -4484,11 +5138,17 @@
         <v>47</v>
       </c>
       <c r="B49">
+        <v>100.729107807123</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
         <v>105.64279562395799</v>
       </c>
-      <c r="W49">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W49" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X49">
         <f t="shared" si="4"/>
@@ -4501,11 +5161,17 @@
         <v>48</v>
       </c>
       <c r="B50">
+        <v>87.311542495123703</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
         <v>108.898921844154</v>
       </c>
-      <c r="W50">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W50" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X50">
         <f t="shared" si="4"/>
@@ -4518,11 +5184,17 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <v>92.390294799661902</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
         <v>-15.628471115664</v>
       </c>
-      <c r="W51">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="W51" t="e">
+        <f>ABS(#REF!-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="X51">
         <f t="shared" si="4"/>
@@ -4580,7 +5252,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" ref="A57:A103" si="6">A56+1</f>
+        <f t="shared" ref="A57:A103" si="5">A56+1</f>
         <v>3</v>
       </c>
       <c r="B57">
@@ -4592,7 +5264,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B58">
@@ -4604,7 +5276,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B59">
@@ -4616,7 +5288,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B60">
@@ -4628,7 +5300,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B61">
@@ -4640,7 +5312,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B62">
@@ -4652,7 +5324,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B63">
@@ -4664,7 +5336,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B64">
@@ -4676,7 +5348,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B65">
@@ -4688,7 +5360,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B66">
@@ -4700,7 +5372,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B67">
@@ -4712,7 +5384,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B68">
@@ -4724,7 +5396,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B69">
@@ -4736,7 +5408,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B70">
@@ -4748,7 +5420,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B71">
@@ -4760,7 +5432,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B72">
@@ -4772,7 +5444,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B73">
@@ -4784,7 +5456,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B74">
@@ -4796,7 +5468,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B75">
@@ -4808,7 +5480,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B76">
@@ -4820,7 +5492,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B77">
@@ -4832,7 +5504,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B78">
@@ -4844,151 +5516,151 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>

--- a/Spreadsheet/lunar_a_actions copy.xlsx
+++ b/Spreadsheet/lunar_a_actions copy.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK_FALL_2020/CS660/3_a/Spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UK2020\CS660\3_A\policy-gradients\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBECBB-729E-4A79-BB35-1EFEBEE39D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,12 +147,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -199,8 +212,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.184929105529703"/>
-          <c:y val="0.0214997663709533"/>
+          <c:x val="0.18492910552970299"/>
+          <c:y val="2.1499766370953299E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -283,151 +296,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,49 +452,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>-171.83595409252</c:v>
+                  <c:v>-171.83595409252001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-181.420300211096</c:v>
+                  <c:v>-181.42030021109599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-78.0477796619403</c:v>
+                  <c:v>-78.047779661940297</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.6451511924869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.2653559349536</c:v>
+                  <c:v>77.265355934953604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.9495614212603</c:v>
+                  <c:v>72.949561421260299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.165306542833</c:v>
+                  <c:v>104.16530654283299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.71523132969391</c:v>
+                  <c:v>88.715231329693907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.217491822763</c:v>
+                  <c:v>123.21749182276299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.220564849915</c:v>
+                  <c:v>107.22056484991499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.935589104422</c:v>
+                  <c:v>112.93558910442199</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>129.647459751903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.798805591374</c:v>
+                  <c:v>109.79880559137401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.1620842625107</c:v>
+                  <c:v>94.162084262510703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.4652986199355</c:v>
+                  <c:v>97.465298619935496</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>102.468772235025</c:v>
@@ -490,82 +503,82 @@
                   <c:v>110.133100009768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.0355264283298</c:v>
+                  <c:v>97.035526428329803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.067685807893</c:v>
+                  <c:v>136.06768580789301</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>132.577485272069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.7162123892801</c:v>
+                  <c:v>98.716212389280102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76.1925588786772</c:v>
+                  <c:v>76.192558878677204</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80.9410290226759</c:v>
+                  <c:v>80.941029022675906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.4486155720172</c:v>
+                  <c:v>98.448615572017204</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>101.55357882462</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84.8559522149168</c:v>
+                  <c:v>84.855952214916798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.5850070270596</c:v>
+                  <c:v>90.585007027059604</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90.9071394849638</c:v>
+                  <c:v>90.907139484963807</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104.946995026123</c:v>
+                  <c:v>104.94699502612301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.1664482781599</c:v>
+                  <c:v>56.166448278159898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56.737447791274</c:v>
+                  <c:v>56.737447791274001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99.4427939847552</c:v>
+                  <c:v>99.442793984755198</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115.450739275997</c:v>
+                  <c:v>115.45073927599699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115.460405729357</c:v>
+                  <c:v>115.46040572935701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83.5652627511617</c:v>
+                  <c:v>83.565262751161697</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.96837112934117</c:v>
+                  <c:v>5.9683711293411701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.6649353024194</c:v>
+                  <c:v>29.664935302419401</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.2422753154602</c:v>
+                  <c:v>59.242275315460198</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.1227648744817</c:v>
+                  <c:v>73.122764874481703</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.92187978612451</c:v>
+                  <c:v>69.921879786124506</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>110.758083668128</c:v>
+                  <c:v>110.75808366812799</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>106.164356879779</c:v>
+                  <c:v>106.16435687977901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.25931504559409</c:v>
+                  <c:v>95.259315045594093</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>106.293994235871</c:v>
@@ -580,15 +593,20 @@
                   <c:v>100.729107807123</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87.3115424951237</c:v>
+                  <c:v>87.311542495123703</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>92.3902947996619</c:v>
+                  <c:v>92.390294799661902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46B1-4207-9DE4-F9B66164EB5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -624,151 +642,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,156 +798,161 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46B1-4207-9DE4-F9B66164EB5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -946,7 +969,7 @@
         <c:axId val="-1680073776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -994,7 +1017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1024,6 +1046,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1068,7 +1091,7 @@
         <c:axId val="-1680370704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="210.0"/>
+          <c:max val="210"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1112,7 +1135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1142,6 +1164,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1192,7 +1215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1260,7 +1282,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1303,7 +1325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1384,76 +1405,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,15 +1552,20 @@
                   <c:v>190.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A811-46B5-9E1F-F7DC645AA6C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1586,76 +1612,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1693,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-147.09513271855</c:v>
+                  <c:v>-147.09513271854999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-113.337297412178</c:v>
@@ -1676,31 +1702,31 @@
                   <c:v>-144.401983788542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-56.7971768020055</c:v>
+                  <c:v>-56.797176802005502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-35.2404963789692</c:v>
+                  <c:v>-35.240496378969198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.0275702424499</c:v>
+                  <c:v>53.027570242449897</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>67.8285328334035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.3314898367353</c:v>
+                  <c:v>99.331489836735301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106.385156621016</c:v>
+                  <c:v>106.38515662101599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.2733246235871</c:v>
+                  <c:v>36.273324623587101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.354793353678</c:v>
+                  <c:v>70.354793353678005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.4751436265002</c:v>
+                  <c:v>93.475143626500198</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>104.170037126381</c:v>
@@ -1709,39 +1735,44 @@
                   <c:v>86.6096610726606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.9317836332714</c:v>
+                  <c:v>58.931783633271401</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>61.6185576296295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60.947169217918</c:v>
+                  <c:v>60.947169217918002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>112.176210083662</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.637790942599629</c:v>
+                  <c:v>8.6377909425996293</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100.872352384054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.4480185051727</c:v>
+                  <c:v>81.448018505172698</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.4970878949075</c:v>
+                  <c:v>98.497087894907494</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.5384179377789</c:v>
+                  <c:v>87.538417937778902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.99235894987</c:v>
+                  <c:v>39.992358949870003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A811-46B5-9E1F-F7DC645AA6C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1788,76 +1819,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,6 +1903,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A811-46B5-9E1F-F7DC645AA6C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1915,76 +1951,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,6 +2035,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A811-46B5-9E1F-F7DC645AA6C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2058,7 +2099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2176,7 +2216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2206,6 +2245,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2256,7 +2296,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3439,20 +3478,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>818596</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24845</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37955</xdr:rowOff>
+      <xdr:rowOff>1320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73533</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>818173</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3482,7 +3527,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3762,19 +3813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3782,7 +3833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3857,7 +3908,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -3872,11 +3923,11 @@
         <v>-113.337297412178</v>
       </c>
       <c r="T4">
-        <f>ABS(E4-E3)</f>
+        <f t="shared" ref="T4:T27" si="1">ABS(E4-E3)</f>
         <v>33.757835306371987</v>
       </c>
       <c r="U4">
-        <f>ABS(B4-B3)</f>
+        <f t="shared" ref="U4:U16" si="2">ABS(B4-B3)</f>
         <v>9.5843461185759793</v>
       </c>
       <c r="V4">
@@ -3892,9 +3943,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A51" si="1">A4+1</f>
+        <f t="shared" ref="A5:A51" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -3907,15 +3958,15 @@
         <v>-144.401983788542</v>
       </c>
       <c r="T5">
-        <f>ABS(E5-E4)</f>
+        <f t="shared" si="1"/>
         <v>31.064686376363994</v>
       </c>
       <c r="U5">
-        <f>ABS(B5-B4)</f>
+        <f t="shared" si="2"/>
         <v>103.37252054915569</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="U5:V25" si="2">ABS(D5-D4)</f>
+        <f t="shared" ref="V5:V25" si="4">ABS(D5-D4)</f>
         <v>0</v>
       </c>
       <c r="W5" t="e">
@@ -3927,9 +3978,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -3942,15 +3993,15 @@
         <v>-56.797176802005502</v>
       </c>
       <c r="T6">
-        <f>ABS(E6-E5)</f>
+        <f t="shared" si="1"/>
         <v>87.604806986536488</v>
       </c>
       <c r="U6">
-        <f>ABS(B6-B5)</f>
+        <f t="shared" si="2"/>
         <v>101.6929308544272</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6" t="e">
@@ -3962,9 +4013,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -3977,15 +4028,15 @@
         <v>-35.240496378969198</v>
       </c>
       <c r="T7">
-        <f>ABS(E7-E6)</f>
+        <f t="shared" si="1"/>
         <v>21.556680423036305</v>
       </c>
       <c r="U7">
-        <f>ABS(B7-B6)</f>
+        <f t="shared" si="2"/>
         <v>53.620204742466704</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" t="e">
@@ -3997,9 +4048,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -4012,15 +4063,15 @@
         <v>53.027570242449897</v>
       </c>
       <c r="T8">
-        <f>ABS(E8-E7)</f>
+        <f t="shared" si="1"/>
         <v>88.268066621419095</v>
       </c>
       <c r="U8">
-        <f>ABS(B8-B7)</f>
+        <f t="shared" si="2"/>
         <v>4.3157945136933051</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" t="e">
@@ -4032,9 +4083,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -4047,15 +4098,15 @@
         <v>67.8285328334035</v>
       </c>
       <c r="T9">
-        <f>ABS(E9-E8)</f>
+        <f t="shared" si="1"/>
         <v>14.800962590953603</v>
       </c>
       <c r="U9">
-        <f>ABS(B9-B8)</f>
+        <f t="shared" si="2"/>
         <v>31.215745121572695</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" t="e">
@@ -4067,9 +4118,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -4082,15 +4133,15 @@
         <v>99.331489836735301</v>
       </c>
       <c r="T10">
-        <f>ABS(E10-E9)</f>
+        <f t="shared" si="1"/>
         <v>31.502957003331801</v>
       </c>
       <c r="U10">
-        <f>ABS(B10-B9)</f>
+        <f t="shared" si="2"/>
         <v>15.450075213139087</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" t="e">
@@ -4102,9 +4153,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -4117,15 +4168,15 @@
         <v>106.38515662101599</v>
       </c>
       <c r="T11">
-        <f>ABS(E11-E10)</f>
+        <f t="shared" si="1"/>
         <v>7.0536667842806935</v>
       </c>
       <c r="U11">
-        <f>ABS(B11-B10)</f>
+        <f t="shared" si="2"/>
         <v>34.502260493069087</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" t="e">
@@ -4137,9 +4188,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -4152,15 +4203,15 @@
         <v>36.273324623587101</v>
       </c>
       <c r="T12">
-        <f>ABS(E12-E11)</f>
+        <f t="shared" si="1"/>
         <v>70.111831997428894</v>
       </c>
       <c r="U12">
-        <f>ABS(B12-B11)</f>
+        <f t="shared" si="2"/>
         <v>15.996926972848001</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" t="e">
@@ -4172,9 +4223,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -4187,15 +4238,15 @@
         <v>70.354793353678005</v>
       </c>
       <c r="T13">
-        <f>ABS(E13-E12)</f>
+        <f t="shared" si="1"/>
         <v>34.081468730090904</v>
       </c>
       <c r="U13">
-        <f>ABS(B13-B12)</f>
+        <f t="shared" si="2"/>
         <v>5.715024254507</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" t="e">
@@ -4207,9 +4258,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -4222,15 +4273,15 @@
         <v>93.475143626500198</v>
       </c>
       <c r="T14">
-        <f>ABS(E14-E13)</f>
+        <f t="shared" si="1"/>
         <v>23.120350272822193</v>
       </c>
       <c r="U14">
-        <f>ABS(B14-B13)</f>
+        <f t="shared" si="2"/>
         <v>16.711870647481007</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" t="e">
@@ -4242,9 +4293,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -4257,15 +4308,15 @@
         <v>104.170037126381</v>
       </c>
       <c r="T15">
-        <f>ABS(E15-E14)</f>
+        <f t="shared" si="1"/>
         <v>10.694893499880806</v>
       </c>
       <c r="U15">
-        <f>ABS(B15-B14)</f>
+        <f t="shared" si="2"/>
         <v>19.848654160528994</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" t="e">
@@ -4277,9 +4328,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -4292,15 +4343,15 @@
         <v>86.6096610726606</v>
       </c>
       <c r="T16">
-        <f>ABS(E16-E15)</f>
+        <f t="shared" si="1"/>
         <v>17.560376053720404</v>
       </c>
       <c r="U16">
-        <f>ABS(B16-B15)</f>
+        <f t="shared" si="2"/>
         <v>15.636721328863302</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" t="e">
@@ -4312,9 +4363,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -4327,11 +4378,11 @@
         <v>58.931783633271401</v>
       </c>
       <c r="T17">
-        <f>ABS(E17-E16)</f>
+        <f t="shared" si="1"/>
         <v>27.677877439389199</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" t="e">
@@ -4343,9 +4394,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -4358,11 +4409,11 @@
         <v>61.6185576296295</v>
       </c>
       <c r="T18">
-        <f>ABS(E18-E17)</f>
+        <f t="shared" si="1"/>
         <v>2.6867739963580988</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" t="e">
@@ -4374,9 +4425,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -4389,11 +4440,11 @@
         <v>60.947169217918002</v>
       </c>
       <c r="T19">
-        <f>ABS(E19-E18)</f>
+        <f t="shared" si="1"/>
         <v>0.67138841171149721</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" t="e">
@@ -4405,9 +4456,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -4420,11 +4471,11 @@
         <v>112.176210083662</v>
       </c>
       <c r="T20">
-        <f>ABS(E20-E19)</f>
+        <f t="shared" si="1"/>
         <v>51.229040865743997</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" t="e">
@@ -4436,9 +4487,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -4451,11 +4502,11 @@
         <v>8.6377909425996293</v>
       </c>
       <c r="T21">
-        <f>ABS(E21-E20)</f>
+        <f t="shared" si="1"/>
         <v>103.53841914106238</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" t="e">
@@ -4467,9 +4518,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -4482,11 +4533,11 @@
         <v>100.872352384054</v>
       </c>
       <c r="T22">
-        <f>ABS(E22-E21)</f>
+        <f t="shared" si="1"/>
         <v>92.23456144145436</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" t="e">
@@ -4498,9 +4549,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -4513,11 +4564,11 @@
         <v>81.448018505172698</v>
       </c>
       <c r="T23">
-        <f>ABS(E23-E22)</f>
+        <f t="shared" si="1"/>
         <v>19.424333878881299</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" t="e">
@@ -4529,9 +4580,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -4544,11 +4595,11 @@
         <v>98.497087894907494</v>
       </c>
       <c r="T24">
-        <f>ABS(E24-E23)</f>
+        <f t="shared" si="1"/>
         <v>17.049069389734797</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" t="e">
@@ -4560,9 +4611,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -4575,11 +4626,11 @@
         <v>87.538417937778902</v>
       </c>
       <c r="T25">
-        <f>ABS(E25-E24)</f>
+        <f t="shared" si="1"/>
         <v>10.958669957128592</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" t="e">
@@ -4591,9 +4642,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -4606,11 +4657,11 @@
         <v>39.992358949870003</v>
       </c>
       <c r="T26">
-        <f>ABS(E26-E25)</f>
+        <f t="shared" si="1"/>
         <v>47.5460589879089</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26" si="3">ABS(D26-D25)</f>
+        <f t="shared" ref="V26" si="5">ABS(D26-D25)</f>
         <v>0</v>
       </c>
       <c r="W26" t="e">
@@ -4622,9 +4673,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -4637,7 +4688,7 @@
         <v>77.909448672505704</v>
       </c>
       <c r="T27">
-        <f>ABS(E27-E26)</f>
+        <f t="shared" si="1"/>
         <v>37.917089722635701</v>
       </c>
       <c r="W27" t="e">
@@ -4649,9 +4700,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -4663,18 +4714,22 @@
       <c r="E28">
         <v>66.5976998781926</v>
       </c>
+      <c r="I28">
+        <f>AVERAGE(B7:B51)</f>
+        <v>93.19477330110827</v>
+      </c>
       <c r="W28" t="e">
         <f>ABS(#REF!-#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X28">
-        <f t="shared" ref="W5:X51" si="4">ABS(F28-F27)</f>
+        <f t="shared" ref="X28:X51" si="6">ABS(F28-F27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -4691,13 +4746,13 @@
         <v>#REF!</v>
       </c>
       <c r="X29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -4714,13 +4769,13 @@
         <v>#REF!</v>
       </c>
       <c r="X30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -4737,13 +4792,13 @@
         <v>#REF!</v>
       </c>
       <c r="X31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -4760,13 +4815,13 @@
         <v>#REF!</v>
       </c>
       <c r="X32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -4783,13 +4838,13 @@
         <v>#REF!</v>
       </c>
       <c r="X33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -4806,13 +4861,13 @@
         <v>#REF!</v>
       </c>
       <c r="X34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -4829,13 +4884,13 @@
         <v>#REF!</v>
       </c>
       <c r="X35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -4852,13 +4907,13 @@
         <v>#REF!</v>
       </c>
       <c r="X36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -4875,13 +4930,13 @@
         <v>#REF!</v>
       </c>
       <c r="X37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -4898,13 +4953,13 @@
         <v>#REF!</v>
       </c>
       <c r="X38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -4921,13 +4976,13 @@
         <v>#REF!</v>
       </c>
       <c r="X39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -4944,13 +4999,13 @@
         <v>#REF!</v>
       </c>
       <c r="X40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -4967,13 +5022,13 @@
         <v>#REF!</v>
       </c>
       <c r="X41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -4990,13 +5045,13 @@
         <v>#REF!</v>
       </c>
       <c r="X42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -5013,13 +5068,13 @@
         <v>#REF!</v>
       </c>
       <c r="X43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -5036,13 +5091,13 @@
         <v>#REF!</v>
       </c>
       <c r="X44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -5059,13 +5114,13 @@
         <v>#REF!</v>
       </c>
       <c r="X45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B46">
@@ -5082,13 +5137,13 @@
         <v>#REF!</v>
       </c>
       <c r="X46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -5105,13 +5160,13 @@
         <v>#REF!</v>
       </c>
       <c r="X47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -5128,13 +5183,13 @@
         <v>#REF!</v>
       </c>
       <c r="X48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -5151,13 +5206,13 @@
         <v>#REF!</v>
       </c>
       <c r="X49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -5174,13 +5229,13 @@
         <v>#REF!</v>
       </c>
       <c r="X50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -5197,12 +5252,12 @@
         <v>#REF!</v>
       </c>
       <c r="X51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5213,7 +5268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5227,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5238,7 +5293,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>A55+1</f>
         <v>2</v>
@@ -5250,9 +5305,9 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" ref="A57:A103" si="5">A56+1</f>
+        <f t="shared" ref="A57:A103" si="7">A56+1</f>
         <v>3</v>
       </c>
       <c r="B57">
@@ -5262,9 +5317,9 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B58">
@@ -5274,9 +5329,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B59">
@@ -5286,9 +5341,9 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B60">
@@ -5298,9 +5353,9 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B61">
@@ -5310,9 +5365,9 @@
         <v>153.1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B62">
@@ -5322,9 +5377,9 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B63">
@@ -5334,9 +5389,9 @@
         <v>192.3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B64">
@@ -5346,9 +5401,9 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B65">
@@ -5358,9 +5413,9 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B66">
@@ -5370,9 +5425,9 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B67">
@@ -5382,9 +5437,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B68">
@@ -5394,9 +5449,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B69">
@@ -5406,9 +5461,9 @@
         <v>185.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B70">
@@ -5418,9 +5473,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B71">
@@ -5430,9 +5485,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B72">
@@ -5442,9 +5497,9 @@
         <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B73">
@@ -5454,9 +5509,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B74">
@@ -5466,9 +5521,9 @@
         <v>181.9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="B75">
@@ -5478,9 +5533,9 @@
         <v>184.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="B76">
@@ -5490,9 +5545,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B77">
@@ -5502,9 +5557,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B78">
@@ -5514,153 +5569,153 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
     </row>
